--- a/data/pivot.xlsx
+++ b/data/pivot.xlsx
@@ -1,42 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb95ccfb54cb50a2/Desktop/internship-project/project/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_D0E6AF4B49C78FD20A103ECA7A66E7139C644225" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView minimized="1" xWindow="2892" yWindow="2772" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Date Wise" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Gender Wise" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Location Wise" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Date Wise" sheetId="1" r:id="rId1"/>
+    <sheet name="Gender Wise" sheetId="2" r:id="rId2"/>
+    <sheet name="Location Wise" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
+  <si>
+    <t>False Negative</t>
+  </si>
+  <si>
+    <t>False Positive</t>
+  </si>
+  <si>
+    <t>True Negative</t>
+  </si>
+  <si>
+    <t>True Positive</t>
+  </si>
+  <si>
+    <t>Overall Accuracy</t>
+  </si>
+  <si>
+    <t>TNR</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Accuracy Level</t>
+  </si>
+  <si>
+    <t>Candidate Count Level</t>
+  </si>
+  <si>
+    <t>Risk Priority Number</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,97 +113,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -429,787 +441,767 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
         <v>45536</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>45537</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>45538</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>45539</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>45540</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>45541</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>45542</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>45543</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>45544</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>45545</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>45546</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>45547</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>45548</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>45549</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>45550</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>45551</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>45552</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>45553</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>45554</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>45555</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>45556</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>45557</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>45558</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>45559</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>45560</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>45561</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>45562</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>45563</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AD1" s="1">
         <v>45564</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AE1" s="1">
         <v>45565</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>False Negative</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>24</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>31</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>26</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>23</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>32</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>30</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>19</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>21</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>26</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>32</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>24</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>26</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>14</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>22</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>32</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>27</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>20</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>15</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>27</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>23</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>25</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>32</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>20</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>22</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>26</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>29</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>21</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>28</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>27</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>23</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>False Positive</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>23</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>19</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>18</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>23</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>26</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>26</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>30</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>24</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>23</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>25</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>31</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>19</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>21</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>26</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>19</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>15</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>31</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>30</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>22</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>23</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>29</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>27</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>24</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>25</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>21</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>33</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>24</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>27</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>True Negative</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>25</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>30</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>28</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>30</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>25</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>24</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>36</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>25</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>22</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>30</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>22</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>23</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>32</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>34</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>20</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>28</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>32</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>27</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>17</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>29</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>28</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>23</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>28</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>28</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>23</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>25</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>29</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>27</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>22</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>27</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>True Positive</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>26</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>28</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>24</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>23</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>20</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>19</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>24</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>28</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>15</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>29</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>20</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>35</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>23</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>22</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>26</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>33</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>27</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>26</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>26</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>24</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>16</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>25</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>26</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>26</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>25</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>17</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>21</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>24</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>34</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Overall Accuracy</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>52</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>50</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>56</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>54</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>48</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>44</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>55</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>49</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>50</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>45</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>51</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>43</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>67</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>57</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>42</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>54</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>65</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>54</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>43</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>55</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>52</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>39</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>53</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>54</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>49</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>50</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>46</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>48</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>46</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>61</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>TNR</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>52</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>61</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>60</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>56</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>55</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>48</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>58</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>45</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>47</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>56</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>46</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>42</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>62</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>61</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>43</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>59</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>68</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>46</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>36</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>56</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>54</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>44</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>50</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>53</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>47</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>54</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>46</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>52</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>44</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>62</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>98</v>
       </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>100</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>100</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-      <c r="K8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M8" t="n">
-        <v>100</v>
-      </c>
-      <c r="N8" t="n">
-        <v>100</v>
-      </c>
-      <c r="O8" t="n">
-        <v>100</v>
-      </c>
-      <c r="P8" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>100</v>
-      </c>
-      <c r="R8" t="n">
-        <v>100</v>
-      </c>
-      <c r="S8" t="n">
-        <v>100</v>
-      </c>
-      <c r="T8" t="n">
-        <v>100</v>
-      </c>
-      <c r="U8" t="n">
-        <v>100</v>
-      </c>
-      <c r="V8" t="n">
-        <v>100</v>
-      </c>
-      <c r="W8" t="n">
-        <v>100</v>
-      </c>
-      <c r="X8" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8">
+        <v>100</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+      <c r="T8">
+        <v>100</v>
+      </c>
+      <c r="U8">
+        <v>100</v>
+      </c>
+      <c r="V8">
+        <v>100</v>
+      </c>
+      <c r="W8">
+        <v>100</v>
+      </c>
+      <c r="X8">
+        <v>100</v>
+      </c>
+      <c r="Y8">
+        <v>100</v>
+      </c>
+      <c r="Z8">
+        <v>100</v>
+      </c>
+      <c r="AA8">
+        <v>100</v>
+      </c>
+      <c r="AB8">
+        <v>100</v>
+      </c>
+      <c r="AC8">
+        <v>100</v>
+      </c>
+      <c r="AD8">
+        <v>100</v>
+      </c>
+      <c r="AE8">
         <v>100</v>
       </c>
     </row>
@@ -1219,1548 +1211,1410 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>False Negative</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>False Positive</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>True Negative</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>True Positive</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
         <v>45536</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>18</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>20</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>17</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>18</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
         <v>45537</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>22</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>13</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>27</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
         <v>45538</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>19</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>14</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>19</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>23</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
         <v>45539</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>19</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>20</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>25</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>12</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
         <v>45540</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>23</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>15</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>16</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
         <v>45541</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>20</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>22</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>18</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
         <v>45542</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>13</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>19</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>26</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
         <v>45543</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>16</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>21</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>18</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>21</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
         <v>45544</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>24</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>20</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>20</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
         <v>45545</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>26</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>18</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>22</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>13</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
         <v>45546</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>17</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>19</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>18</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>24</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
         <v>45547</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>15</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>25</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>19</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>16</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="n">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
         <v>45548</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>14</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>23</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>28</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="n">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
         <v>45549</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>16</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>19</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>17</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="n">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
         <v>45550</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>28</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>20</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>11</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>18</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="n">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
         <v>45551</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>20</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>12</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>22</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="n">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
         <v>45552</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>15</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>12</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>24</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>29</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="n">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
         <v>45553</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>11</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>24</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>16</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>22</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="n">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
         <v>45554</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>19</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>22</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>12</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>17</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="n">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
         <v>45555</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>18</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>16</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>14</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>21</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="n">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
         <v>45556</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>20</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>15</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>22</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>17</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="n">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
         <v>45557</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>22</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>22</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>16</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>16</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="n">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
         <v>45558</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>16</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>21</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>19</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>19</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="n">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3">
         <v>45559</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>13</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>19</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>16</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>16</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="n">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
         <v>45560</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>19</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>23</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>19</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>18</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="n">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3">
         <v>45561</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>25</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>16</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>19</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>17</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="n">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
         <v>45562</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>14</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>21</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>18</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>13</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="n">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3">
         <v>45563</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>20</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>12</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>20</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>14</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="n">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3">
         <v>45564</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>24</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>21</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>19</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>19</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="n">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3">
         <v>45565</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>18</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>11</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>21</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>25</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="n">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3">
         <v>45536</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>6</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>3</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>8</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>8</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="n">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
         <v>45537</v>
       </c>
-      <c r="D33" t="n">
-        <v>9</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33">
         <v>6</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>3</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>7</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="n">
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3">
         <v>45538</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>7</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>4</v>
       </c>
-      <c r="F34" t="n">
-        <v>9</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34">
         <v>5</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="n">
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3">
         <v>45539</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>4</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>3</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>5</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>12</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="n">
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3">
         <v>45540</v>
       </c>
-      <c r="D36" t="n">
-        <v>9</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" t="n">
-        <v>9</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36">
         <v>4</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="n">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3">
         <v>45541</v>
       </c>
-      <c r="D37" t="n">
-        <v>10</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
         <v>4</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>6</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>5</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="n">
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3">
         <v>45542</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>6</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>7</v>
       </c>
-      <c r="F38" t="n">
-        <v>10</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
         <v>4</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="n">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3">
         <v>45543</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>5</v>
       </c>
-      <c r="E39" t="n">
-        <v>9</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39">
         <v>7</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>3</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="n">
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3">
         <v>45544</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>2</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>4</v>
       </c>
-      <c r="F40" t="n">
-        <v>9</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40">
         <v>8</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="n">
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3">
         <v>45545</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>6</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>5</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>8</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>2</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="n">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="3">
         <v>45546</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>7</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>6</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>4</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>5</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="n">
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="3">
         <v>45547</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>11</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>6</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>4</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>4</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="n">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="3">
         <v>45548</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" t="n">
-        <v>9</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44">
         <v>7</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="n">
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3">
         <v>45549</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>6</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>7</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>15</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>6</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="n">
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3">
         <v>45550</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>4</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>6</v>
       </c>
-      <c r="F46" t="n">
-        <v>9</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46">
         <v>4</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="n">
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="3">
         <v>45551</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>7</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>7</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>6</v>
       </c>
-      <c r="G47" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="G47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="n">
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="3">
         <v>45552</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>5</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>3</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>8</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>4</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="n">
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3">
         <v>45553</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>4</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>7</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>11</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>5</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="n">
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3">
         <v>45554</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>8</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>8</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>5</v>
       </c>
-      <c r="G50" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="G50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="n">
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="3">
         <v>45555</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>5</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>6</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>15</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>5</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="n">
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="3">
         <v>45556</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>5</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>8</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>6</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>7</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="n">
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="3">
         <v>45557</v>
       </c>
-      <c r="D53" t="n">
-        <v>10</v>
-      </c>
-      <c r="E53" t="n">
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
         <v>7</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>7</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="n">
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="3">
         <v>45558</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>4</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>6</v>
       </c>
-      <c r="F54" t="n">
-        <v>9</v>
-      </c>
-      <c r="G54" t="n">
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54">
         <v>6</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="n">
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="3">
         <v>45559</v>
       </c>
-      <c r="D55" t="n">
-        <v>9</v>
-      </c>
-      <c r="E55" t="n">
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55">
         <v>5</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>12</v>
       </c>
-      <c r="G55" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="G55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="n">
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="3">
         <v>45560</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>7</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>2</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>4</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>8</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="n">
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="3">
         <v>45561</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>4</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>5</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>6</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>8</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="n">
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="3">
         <v>45562</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>7</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>12</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>11</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>4</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="n">
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="3">
         <v>45563</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>12</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>7</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>7</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="n">
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="3">
         <v>45564</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>3</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>6</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>3</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>5</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="n">
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="3">
         <v>45565</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>5</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>5</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>6</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>9</v>
       </c>
     </row>
@@ -2770,177 +2624,149 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Chennai</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Mumbai</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Delhi</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>False Positive</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>234</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>248</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>238</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>True Negative</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>282</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>279</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>238</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>True Positive</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>240</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>259</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>233</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>False Negative</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
         <v>264</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>243</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>240</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Overall Accuracy</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>51</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>52</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Accuracy Level</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>1020</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1029</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>949</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Candidate Count Level</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Risk Priority Number</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>3</v>
       </c>
     </row>

--- a/data/pivot.xlsx
+++ b/data/pivot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb95ccfb54cb50a2/Desktop/internship-project/project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_D0E6AF4B49C78FD20A103ECA7A66E7139C644225" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_D0E6AF4B49C78FD20A103ECA7A66E7139C644225" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{915597D9-8A2C-4D27-A5D9-7FC854F88F4C}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2892" yWindow="2772" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Date Wise" sheetId="1" r:id="rId1"/>
@@ -1214,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A23" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2627,11 +2627,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
